--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335797.253022597</v>
+        <v>3333607.069907717</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5904843.428690092</v>
+        <v>5904843.428690096</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.17242110755895</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122683</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="E7" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>74.24596078692618</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I11" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H12" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I12" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T13" t="n">
         <v>219.8901868729779</v>
       </c>
       <c r="U13" t="n">
-        <v>40.01974646340064</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>107.6773456079793</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.0997690055786</v>
       </c>
       <c r="H14" t="n">
-        <v>296.4311508672723</v>
+        <v>296.4311508672714</v>
       </c>
       <c r="I14" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>113.244924674728</v>
       </c>
       <c r="T14" t="n">
-        <v>204.6973549135475</v>
+        <v>204.6973549135481</v>
       </c>
       <c r="U14" t="n">
         <v>251.009415427072</v>
@@ -1701,10 +1701,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H15" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I15" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35.61076810818349</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>64.13615320888772</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.465079530659</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.52313384837929</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S16" t="n">
         <v>191.1608391039575</v>
@@ -1822,16 +1822,16 @@
         <v>286.216194430253</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055777</v>
       </c>
       <c r="H17" t="n">
         <v>296.4311508672723</v>
       </c>
       <c r="I17" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>113.244924674728</v>
       </c>
       <c r="T17" t="n">
-        <v>204.6973549135475</v>
+        <v>204.6973549135481</v>
       </c>
       <c r="U17" t="n">
         <v>251.009415427072</v>
@@ -1938,10 +1938,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H18" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I18" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S19" t="n">
         <v>191.1608391039575</v>
@@ -2056,16 +2056,16 @@
         <v>219.8901868729779</v>
       </c>
       <c r="U19" t="n">
-        <v>190.7378381636918</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>11.69152858668829</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I20" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>204.6973549135481</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0094154270728</v>
+        <v>251.009415427072</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2175,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H21" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I21" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>55.014328135127</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.68248283739648</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T22" t="n">
         <v>219.8901868729779</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I23" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H24" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I24" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T25" t="n">
-        <v>149.4669973329442</v>
+        <v>31.88869675803767</v>
       </c>
       <c r="U25" t="n">
         <v>286.216194430253</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055785</v>
       </c>
       <c r="H26" t="n">
         <v>296.4311508672723</v>
       </c>
       <c r="I26" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H27" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I27" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>83.14937644719348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>55.30291197435892</v>
       </c>
       <c r="H28" t="n">
-        <v>145.465079530659</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.1608391039575</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.8901868729779</v>
       </c>
       <c r="U28" t="n">
-        <v>286.216194430253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I29" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H30" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I30" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S31" t="n">
-        <v>95.68248283739602</v>
+        <v>96.1613495359924</v>
       </c>
       <c r="T31" t="n">
         <v>219.8901868729779</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I32" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H33" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I33" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.7662539809673</v>
+        <v>142.7662539809674</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>111.5497468172424</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.53751930651219</v>
+        <v>90.42037036224343</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>108.3553218219613</v>
       </c>
       <c r="G34" t="n">
         <v>129.0399461764603</v>
@@ -3205,7 +3205,7 @@
         <v>108.399353329689</v>
       </c>
       <c r="I34" t="n">
-        <v>61.68842606044966</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.45740764740934</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S34" t="n">
         <v>154.0951129029876</v>
@@ -3241,7 +3241,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U34" t="n">
-        <v>249.150468229283</v>
+        <v>249.1504682292831</v>
       </c>
       <c r="V34" t="n">
         <v>215.0719171228581</v>
@@ -3253,7 +3253,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.5189271511248</v>
+        <v>181.5189271511249</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055777</v>
       </c>
       <c r="H35" t="n">
         <v>296.4311508672723</v>
       </c>
       <c r="I35" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H36" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I36" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.7662539809673</v>
+        <v>142.7662539809674</v>
       </c>
       <c r="C37" t="n">
         <v>130.1810948976579</v>
       </c>
       <c r="D37" t="n">
-        <v>6.90617122609711</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.755777738543361</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>129.0399461764603</v>
       </c>
       <c r="H37" t="n">
-        <v>108.399353329689</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.68842606044966</v>
+        <v>61.68842606044968</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.45740764740934</v>
+        <v>55.45740764740936</v>
       </c>
       <c r="S37" t="n">
         <v>154.0951129029876</v>
@@ -3478,7 +3478,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U37" t="n">
-        <v>249.150468229283</v>
+        <v>249.1504682292831</v>
       </c>
       <c r="V37" t="n">
         <v>215.0719171228581</v>
@@ -3490,7 +3490,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.5189271511248</v>
+        <v>181.5189271511249</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0997690055786</v>
+        <v>411.0997690055777</v>
       </c>
       <c r="H38" t="n">
         <v>296.4311508672723</v>
       </c>
       <c r="I38" t="n">
-        <v>48.44094610573038</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H39" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I39" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.7662539809673</v>
+        <v>142.7662539809674</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130.1810948976579</v>
       </c>
       <c r="D40" t="n">
-        <v>27.71902967815545</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E40" t="n">
-        <v>109.3682364455992</v>
+        <v>24.39637058531551</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>129.0399461764603</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>108.399353329689</v>
       </c>
       <c r="I40" t="n">
-        <v>61.68842606044966</v>
+        <v>61.68842606044968</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.45740764740934</v>
+        <v>55.45740764740936</v>
       </c>
       <c r="S40" t="n">
         <v>154.0951129029876</v>
@@ -3715,7 +3715,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U40" t="n">
-        <v>249.150468229283</v>
+        <v>249.1504682292831</v>
       </c>
       <c r="V40" t="n">
         <v>215.0719171228581</v>
@@ -3727,7 +3727,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.5189271511248</v>
+        <v>181.5189271511249</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I41" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H42" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I42" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.7662539809673</v>
+        <v>142.7662539809674</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>45.25326054510106</v>
       </c>
       <c r="D43" t="n">
-        <v>83.22046883329267</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E43" t="n">
-        <v>109.3682364455992</v>
+        <v>109.3682364455993</v>
       </c>
       <c r="F43" t="n">
         <v>108.3553218219613</v>
       </c>
       <c r="G43" t="n">
-        <v>129.0399461764603</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.68842606044966</v>
+        <v>61.68842606044968</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>55.45740764740936</v>
       </c>
       <c r="S43" t="n">
         <v>154.0951129029876</v>
@@ -3952,7 +3952,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U43" t="n">
-        <v>249.150468229283</v>
+        <v>249.1504682292831</v>
       </c>
       <c r="V43" t="n">
         <v>215.0719171228581</v>
@@ -3964,7 +3964,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y43" t="n">
-        <v>181.5189271511248</v>
+        <v>181.5189271511249</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>296.4311508672723</v>
       </c>
       <c r="I44" t="n">
-        <v>48.44094610573129</v>
+        <v>48.44094610573126</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>135.0947307573664</v>
       </c>
       <c r="H45" t="n">
-        <v>90.51690184321095</v>
+        <v>90.51690184321093</v>
       </c>
       <c r="I45" t="n">
-        <v>11.97131142212744</v>
+        <v>11.97131142212743</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.7662539809673</v>
+        <v>142.7662539809674</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>130.1810948976579</v>
       </c>
       <c r="D46" t="n">
-        <v>28.73194430179353</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>108.3553218219613</v>
+        <v>6.906171226096639</v>
       </c>
       <c r="G46" t="n">
         <v>129.0399461764603</v>
@@ -4153,7 +4153,7 @@
         <v>108.399353329689</v>
       </c>
       <c r="I46" t="n">
-        <v>61.68842606044966</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.45740764740934</v>
+        <v>55.45740764740935</v>
       </c>
       <c r="S46" t="n">
         <v>154.0951129029876</v>
@@ -4189,7 +4189,7 @@
         <v>182.824460672008</v>
       </c>
       <c r="U46" t="n">
-        <v>249.150468229283</v>
+        <v>249.1504682292831</v>
       </c>
       <c r="V46" t="n">
         <v>215.0719171228581</v>
@@ -4201,7 +4201,7 @@
         <v>188.6439291880672</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.5189271511248</v>
+        <v>181.5189271511249</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.576038264086</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1448.576038264086</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.576038264086</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>288.5951747571379</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C11" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593153</v>
       </c>
       <c r="D11" t="n">
         <v>1656.225887986402</v>
@@ -5027,40 +5027,40 @@
         <v>1270.437635388158</v>
       </c>
       <c r="F11" t="n">
-        <v>859.4517305985501</v>
+        <v>859.4517305985502</v>
       </c>
       <c r="G11" t="n">
         <v>444.1994386737233</v>
       </c>
       <c r="H11" t="n">
-        <v>144.7740337572868</v>
+        <v>144.7740337572867</v>
       </c>
       <c r="I11" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J11" t="n">
-        <v>437.1684702571587</v>
+        <v>437.1684702571588</v>
       </c>
       <c r="K11" t="n">
         <v>1069.470498160096</v>
       </c>
       <c r="L11" t="n">
-        <v>1683.557268127854</v>
+        <v>1748.616523802107</v>
       </c>
       <c r="M11" t="n">
-        <v>2186.138946593469</v>
+        <v>2251.198202267723</v>
       </c>
       <c r="N11" t="n">
-        <v>2701.466730428459</v>
+        <v>2766.525986102713</v>
       </c>
       <c r="O11" t="n">
-        <v>3551.73306193099</v>
+        <v>3616.792317605243</v>
       </c>
       <c r="P11" t="n">
-        <v>4239.741321354045</v>
+        <v>4304.800577028298</v>
       </c>
       <c r="Q11" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285898</v>
       </c>
       <c r="R11" t="n">
         <v>4792.189258281947</v>
@@ -5069,22 +5069,22 @@
         <v>4677.800445479192</v>
       </c>
       <c r="T11" t="n">
-        <v>4471.035440516011</v>
+        <v>4471.035440516012</v>
       </c>
       <c r="U11" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448263</v>
       </c>
       <c r="V11" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104692</v>
       </c>
       <c r="W11" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834578</v>
       </c>
       <c r="X11" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F12" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G12" t="n">
         <v>199.367232908405</v>
@@ -5118,28 +5118,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J12" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K12" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L12" t="n">
-        <v>891.5408184392089</v>
+        <v>852.4712753138322</v>
       </c>
       <c r="M12" t="n">
-        <v>1314.921400115041</v>
+        <v>1275.851856989664</v>
       </c>
       <c r="N12" t="n">
-        <v>1763.91625089534</v>
+        <v>1724.846707769963</v>
       </c>
       <c r="O12" t="n">
-        <v>2152.439025896464</v>
+        <v>2113.369482771087</v>
       </c>
       <c r="P12" t="n">
-        <v>2444.929739364486</v>
+        <v>2405.860196239109</v>
       </c>
       <c r="Q12" t="n">
-        <v>2590.532838984828</v>
+        <v>2551.463295859453</v>
       </c>
       <c r="R12" t="n">
         <v>2590.532838984828</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>730.5932085402246</v>
+        <v>245.9604245779747</v>
       </c>
       <c r="C13" t="n">
-        <v>561.6570256123177</v>
+        <v>245.9604245779747</v>
       </c>
       <c r="D13" t="n">
-        <v>411.540386199982</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="E13" t="n">
-        <v>263.6272926175889</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="F13" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="G13" t="n">
         <v>95.84378516563895</v>
@@ -5197,10 +5197,10 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J13" t="n">
-        <v>135.3764883732601</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K13" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235332</v>
       </c>
       <c r="L13" t="n">
         <v>634.982618740906</v>
@@ -5221,28 +5221,28 @@
         <v>1878.243577816261</v>
       </c>
       <c r="R13" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S13" t="n">
-        <v>1878.243577816261</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T13" t="n">
-        <v>1656.132277944566</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.708291617899</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.023803412012</v>
+        <v>825.7910550087906</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.023803412012</v>
+        <v>536.37388497183</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.034252513994</v>
+        <v>427.6088894082145</v>
       </c>
       <c r="Y13" t="n">
-        <v>912.2416733704644</v>
+        <v>427.6088894082144</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C14" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D14" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E14" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F14" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G14" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737225</v>
       </c>
       <c r="H14" t="n">
         <v>144.7740337572867</v>
@@ -5276,28 +5276,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J14" t="n">
-        <v>310.351141774358</v>
+        <v>375.4103974486102</v>
       </c>
       <c r="K14" t="n">
-        <v>942.6531696772953</v>
+        <v>1007.712425351548</v>
       </c>
       <c r="L14" t="n">
-        <v>1779.356374803063</v>
+        <v>1844.415630477316</v>
       </c>
       <c r="M14" t="n">
-        <v>2281.938053268679</v>
+        <v>2346.997308942931</v>
       </c>
       <c r="N14" t="n">
-        <v>3230.239292271533</v>
+        <v>3295.298547945786</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.505623774063</v>
+        <v>4145.564879448316</v>
       </c>
       <c r="P14" t="n">
-        <v>4449.933162107351</v>
+        <v>4514.992417781604</v>
       </c>
       <c r="Q14" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285898</v>
       </c>
       <c r="R14" t="n">
         <v>4792.189258281947</v>
@@ -5306,22 +5306,22 @@
         <v>4677.800445479192</v>
       </c>
       <c r="T14" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U14" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V14" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W14" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X14" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y14" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F15" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G15" t="n">
         <v>199.367232908405</v>
@@ -5355,25 +5355,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J15" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K15" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L15" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M15" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N15" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O15" t="n">
-        <v>2135.59574178639</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q15" t="n">
         <v>2590.532838984828</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.6277783059293</v>
+        <v>597.801504110773</v>
       </c>
       <c r="C16" t="n">
-        <v>160.6277783059293</v>
+        <v>428.8653211828661</v>
       </c>
       <c r="D16" t="n">
-        <v>160.6277783059293</v>
+        <v>278.7486817705303</v>
       </c>
       <c r="E16" t="n">
-        <v>160.6277783059293</v>
+        <v>242.7782089339813</v>
       </c>
       <c r="F16" t="n">
-        <v>160.6277783059293</v>
+        <v>242.7782089339813</v>
       </c>
       <c r="G16" t="n">
-        <v>95.84378516563895</v>
+        <v>242.7782089339813</v>
       </c>
       <c r="H16" t="n">
         <v>95.84378516563895</v>
@@ -5434,10 +5434,10 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J16" t="n">
-        <v>135.3764883732601</v>
+        <v>135.37648837326</v>
       </c>
       <c r="K16" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235332</v>
       </c>
       <c r="L16" t="n">
         <v>634.982618740906</v>
@@ -5452,7 +5452,7 @@
         <v>1584.209046862485</v>
       </c>
       <c r="P16" t="n">
-        <v>1807.253937215157</v>
+        <v>1807.253937215158</v>
       </c>
       <c r="Q16" t="n">
         <v>1878.243577816261</v>
@@ -5467,19 +5467,19 @@
         <v>1369.582810315943</v>
       </c>
       <c r="U16" t="n">
-        <v>1080.475543214677</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V16" t="n">
-        <v>1080.475543214677</v>
+        <v>825.7910550087903</v>
       </c>
       <c r="W16" t="n">
-        <v>791.0583731777165</v>
+        <v>825.7910550087903</v>
       </c>
       <c r="X16" t="n">
-        <v>563.0688222796991</v>
+        <v>597.801504110773</v>
       </c>
       <c r="Y16" t="n">
-        <v>342.276243136169</v>
+        <v>597.801504110773</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C17" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D17" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986401</v>
       </c>
       <c r="E17" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F17" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G17" t="n">
         <v>444.1994386737234</v>
@@ -5513,25 +5513,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J17" t="n">
-        <v>269.7628212368057</v>
+        <v>437.1684702571588</v>
       </c>
       <c r="K17" t="n">
-        <v>902.064849139743</v>
+        <v>1069.470498160096</v>
       </c>
       <c r="L17" t="n">
-        <v>1738.768054265511</v>
+        <v>1906.173703285864</v>
       </c>
       <c r="M17" t="n">
-        <v>2281.938053268679</v>
+        <v>2408.75538175148</v>
       </c>
       <c r="N17" t="n">
-        <v>3230.239292271533</v>
+        <v>3357.056620754334</v>
       </c>
       <c r="O17" t="n">
-        <v>4080.505623774063</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P17" t="n">
-        <v>4449.933162107351</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q17" t="n">
         <v>4679.185111611645</v>
@@ -5543,22 +5543,22 @@
         <v>4677.800445479192</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U17" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V17" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W17" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X17" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y17" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F18" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G18" t="n">
         <v>199.367232908405</v>
@@ -5592,25 +5592,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J18" t="n">
-        <v>305.4410496149624</v>
+        <v>305.4410496149625</v>
       </c>
       <c r="K18" t="n">
-        <v>528.4764171923166</v>
+        <v>528.4764171923168</v>
       </c>
       <c r="L18" t="n">
-        <v>874.6975343291349</v>
+        <v>874.6975343291351</v>
       </c>
       <c r="M18" t="n">
         <v>1298.078116004967</v>
       </c>
       <c r="N18" t="n">
-        <v>1747.072966785266</v>
+        <v>1747.072966785267</v>
       </c>
       <c r="O18" t="n">
         <v>2135.59574178639</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.929739364486</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q18" t="n">
         <v>2590.532838984828</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.84378516563896</v>
+        <v>411.5403861999819</v>
       </c>
       <c r="C19" t="n">
-        <v>95.84378516563895</v>
+        <v>411.5403861999819</v>
       </c>
       <c r="D19" t="n">
-        <v>95.84378516563895</v>
+        <v>411.5403861999819</v>
       </c>
       <c r="E19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="F19" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="G19" t="n">
         <v>95.84378516563895</v>
@@ -5677,46 +5677,46 @@
         <v>330.1777004235333</v>
       </c>
       <c r="L19" t="n">
-        <v>634.982618740906</v>
+        <v>634.9826187409062</v>
       </c>
       <c r="M19" t="n">
-        <v>966.7457913979968</v>
+        <v>966.7457913979972</v>
       </c>
       <c r="N19" t="n">
         <v>1296.054993758307</v>
       </c>
       <c r="O19" t="n">
-        <v>1584.209046862485</v>
+        <v>1584.209046862486</v>
       </c>
       <c r="P19" t="n">
-        <v>1807.253937215157</v>
+        <v>1807.253937215158</v>
       </c>
       <c r="Q19" t="n">
         <v>1878.243577816261</v>
       </c>
       <c r="R19" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S19" t="n">
-        <v>1685.151821145596</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T19" t="n">
-        <v>1463.040521273902</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.376038280274</v>
+        <v>1080.475543214678</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.691550074387</v>
+        <v>825.7910550087909</v>
       </c>
       <c r="W19" t="n">
-        <v>726.2743800374261</v>
+        <v>813.9814301737517</v>
       </c>
       <c r="X19" t="n">
-        <v>498.2848291394088</v>
+        <v>813.9814301737517</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.4922499958786</v>
+        <v>593.1888510302216</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1270.437635388158</v>
       </c>
       <c r="F20" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G20" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H20" t="n">
         <v>144.7740337572867</v>
@@ -5750,22 +5750,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J20" t="n">
-        <v>310.351141774358</v>
+        <v>437.1684702571588</v>
       </c>
       <c r="K20" t="n">
-        <v>942.6531696772953</v>
+        <v>989.0196850476052</v>
       </c>
       <c r="L20" t="n">
-        <v>1779.356374803063</v>
+        <v>1825.722890173373</v>
       </c>
       <c r="M20" t="n">
-        <v>2281.938053268679</v>
+        <v>2773.322966796893</v>
       </c>
       <c r="N20" t="n">
-        <v>3230.239292271533</v>
+        <v>3288.650750631883</v>
       </c>
       <c r="O20" t="n">
-        <v>4080.505623774063</v>
+        <v>3761.924902684295</v>
       </c>
       <c r="P20" t="n">
         <v>4449.933162107351</v>
@@ -5777,10 +5777,10 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S20" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U20" t="n">
         <v>4217.490576448262</v>
@@ -5817,7 +5817,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F21" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G21" t="n">
         <v>199.367232908405</v>
@@ -5829,25 +5829,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J21" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K21" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L21" t="n">
-        <v>891.5408184392089</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M21" t="n">
-        <v>1314.921400115041</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N21" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O21" t="n">
-        <v>2152.439025896464</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P21" t="n">
-        <v>2444.929739364486</v>
+        <v>2303.256330267408</v>
       </c>
       <c r="Q21" t="n">
         <v>2590.532838984828</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.84378516563895</v>
+        <v>414.8966075058816</v>
       </c>
       <c r="C22" t="n">
-        <v>95.84378516563895</v>
+        <v>245.9604245779747</v>
       </c>
       <c r="D22" t="n">
-        <v>95.84378516563895</v>
+        <v>95.84378516563896</v>
       </c>
       <c r="E22" t="n">
         <v>95.84378516563895</v>
@@ -5911,13 +5911,13 @@
         <v>135.3764883732602</v>
       </c>
       <c r="K22" t="n">
-        <v>330.1777004235332</v>
+        <v>330.1777004235334</v>
       </c>
       <c r="L22" t="n">
-        <v>634.9826187409059</v>
+        <v>634.9826187409061</v>
       </c>
       <c r="M22" t="n">
-        <v>966.7457913979966</v>
+        <v>966.745791397997</v>
       </c>
       <c r="N22" t="n">
         <v>1296.054993758307</v>
@@ -5935,25 +5935,25 @@
         <v>1878.243577816261</v>
       </c>
       <c r="S22" t="n">
-        <v>1781.594605253234</v>
+        <v>1685.151821145597</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.483305381539</v>
+        <v>1463.040521273902</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.376038280274</v>
+        <v>1173.933254172636</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.691550074387</v>
+        <v>919.2487659667495</v>
       </c>
       <c r="W22" t="n">
-        <v>726.2743800374261</v>
+        <v>919.2487659667495</v>
       </c>
       <c r="X22" t="n">
-        <v>498.2848291394088</v>
+        <v>691.2592150687321</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.4922499958786</v>
+        <v>470.466635925202</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>269.7628212368057</v>
       </c>
       <c r="K23" t="n">
-        <v>902.064849139743</v>
+        <v>765.986788845285</v>
       </c>
       <c r="L23" t="n">
-        <v>1738.768054265511</v>
+        <v>1189.205391566107</v>
       </c>
       <c r="M23" t="n">
-        <v>2241.349732731127</v>
+        <v>2136.805468189627</v>
       </c>
       <c r="N23" t="n">
-        <v>3189.650971733981</v>
+        <v>3085.106707192481</v>
       </c>
       <c r="O23" t="n">
-        <v>4039.917303236511</v>
+        <v>3935.373038695011</v>
       </c>
       <c r="P23" t="n">
-        <v>4409.344841569799</v>
+        <v>4304.800577028299</v>
       </c>
       <c r="Q23" t="n">
-        <v>4679.185111611646</v>
+        <v>4744.244367285899</v>
       </c>
       <c r="R23" t="n">
         <v>4792.189258281948</v>
@@ -6054,7 +6054,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F24" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G24" t="n">
         <v>199.367232908405</v>
@@ -6066,25 +6066,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J24" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K24" t="n">
-        <v>545.3197013023907</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L24" t="n">
-        <v>891.5408184392089</v>
+        <v>891.5408184392079</v>
       </c>
       <c r="M24" t="n">
-        <v>1314.921400115041</v>
+        <v>1314.92140011504</v>
       </c>
       <c r="N24" t="n">
-        <v>1763.91625089534</v>
+        <v>1763.916250895339</v>
       </c>
       <c r="O24" t="n">
-        <v>2152.439025896464</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P24" t="n">
-        <v>2444.929739364486</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q24" t="n">
         <v>2590.532838984828</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563902</v>
       </c>
       <c r="C25" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563902</v>
       </c>
       <c r="D25" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563902</v>
       </c>
       <c r="E25" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="F25" t="n">
-        <v>263.6272926175888</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="G25" t="n">
         <v>95.84378516563895</v>
@@ -6154,7 +6154,7 @@
         <v>634.9826187409059</v>
       </c>
       <c r="M25" t="n">
-        <v>966.7457913979969</v>
+        <v>966.7457913979968</v>
       </c>
       <c r="N25" t="n">
         <v>1296.054993758307</v>
@@ -6169,28 +6169,28 @@
         <v>1878.243577816261</v>
       </c>
       <c r="R25" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S25" t="n">
-        <v>1878.243577816261</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T25" t="n">
-        <v>1727.266812833489</v>
+        <v>1559.483305381539</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.159545732223</v>
+        <v>1270.376038280274</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.475057526337</v>
+        <v>1015.691550074387</v>
       </c>
       <c r="W25" t="n">
-        <v>894.0578874893758</v>
+        <v>726.2743800374262</v>
       </c>
       <c r="X25" t="n">
-        <v>666.0683365913585</v>
+        <v>498.2848291394089</v>
       </c>
       <c r="Y25" t="n">
-        <v>445.2757574478284</v>
+        <v>277.4922499958788</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D26" t="n">
         <v>1656.225887986402</v>
@@ -6212,10 +6212,10 @@
         <v>1270.437635388158</v>
       </c>
       <c r="F26" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G26" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H26" t="n">
         <v>144.7740337572867</v>
@@ -6224,19 +6224,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J26" t="n">
-        <v>437.1684702571587</v>
+        <v>437.1684702571588</v>
       </c>
       <c r="K26" t="n">
         <v>1069.470498160096</v>
       </c>
       <c r="L26" t="n">
-        <v>1492.689100880918</v>
+        <v>1906.173703285864</v>
       </c>
       <c r="M26" t="n">
-        <v>2440.289177504438</v>
+        <v>2408.75538175148</v>
       </c>
       <c r="N26" t="n">
-        <v>2955.616961339428</v>
+        <v>2924.08316558647</v>
       </c>
       <c r="O26" t="n">
         <v>3551.73306193099</v>
@@ -6251,25 +6251,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S26" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T26" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U26" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V26" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W26" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X26" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y26" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F27" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G27" t="n">
         <v>199.367232908405</v>
@@ -6303,28 +6303,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J27" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K27" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L27" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M27" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N27" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.59574178639</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.086455254412</v>
+        <v>2303.256330267408</v>
       </c>
       <c r="Q27" t="n">
-        <v>2590.532838984828</v>
+        <v>2551.463295859453</v>
       </c>
       <c r="R27" t="n">
         <v>2590.532838984828</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.5936084983779</v>
+        <v>449.735045407195</v>
       </c>
       <c r="C28" t="n">
-        <v>473.657425570471</v>
+        <v>449.735045407195</v>
       </c>
       <c r="D28" t="n">
-        <v>473.657425570471</v>
+        <v>299.6184059948592</v>
       </c>
       <c r="E28" t="n">
-        <v>389.6681564318917</v>
+        <v>151.7053124124661</v>
       </c>
       <c r="F28" t="n">
-        <v>242.7782089339813</v>
+        <v>151.7053124124661</v>
       </c>
       <c r="G28" t="n">
-        <v>242.7782089339813</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="H28" t="n">
         <v>95.84378516563895</v>
@@ -6382,22 +6382,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J28" t="n">
-        <v>135.3764883732601</v>
+        <v>135.3764883732602</v>
       </c>
       <c r="K28" t="n">
-        <v>330.1777004235333</v>
+        <v>330.1777004235334</v>
       </c>
       <c r="L28" t="n">
-        <v>634.9826187409059</v>
+        <v>634.9826187409061</v>
       </c>
       <c r="M28" t="n">
-        <v>966.7457913979966</v>
+        <v>966.745791397997</v>
       </c>
       <c r="N28" t="n">
         <v>1296.054993758307</v>
       </c>
       <c r="O28" t="n">
-        <v>1584.209046862485</v>
+        <v>1584.209046862486</v>
       </c>
       <c r="P28" t="n">
         <v>1807.253937215157</v>
@@ -6406,28 +6406,28 @@
         <v>1878.243577816261</v>
       </c>
       <c r="R28" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S28" t="n">
-        <v>1878.243577816261</v>
+        <v>1591.694110187638</v>
       </c>
       <c r="T28" t="n">
-        <v>1878.243577816261</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.136310714995</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="V28" t="n">
-        <v>1334.451822509108</v>
+        <v>1369.582810315943</v>
       </c>
       <c r="W28" t="n">
-        <v>1045.034652472148</v>
+        <v>1080.165640278982</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.034652472148</v>
+        <v>852.1760893809648</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.2420733286176</v>
+        <v>631.3835102374346</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2383.454103533563</v>
+        <v>2383.454103533564</v>
       </c>
       <c r="C29" t="n">
-        <v>2014.491586593152</v>
+        <v>2014.491586593153</v>
       </c>
       <c r="D29" t="n">
-        <v>1656.225887986402</v>
+        <v>1656.225887986403</v>
       </c>
       <c r="E29" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F29" t="n">
-        <v>859.4517305985501</v>
+        <v>859.451730598551</v>
       </c>
       <c r="G29" t="n">
         <v>444.1994386737233</v>
@@ -6461,22 +6461,22 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J29" t="n">
-        <v>437.1684702571587</v>
+        <v>437.1684702571588</v>
       </c>
       <c r="K29" t="n">
         <v>1069.470498160096</v>
       </c>
       <c r="L29" t="n">
-        <v>1615.531049420068</v>
+        <v>1492.689100880918</v>
       </c>
       <c r="M29" t="n">
-        <v>2563.131126043587</v>
+        <v>2440.289177504438</v>
       </c>
       <c r="N29" t="n">
-        <v>3078.458909878577</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O29" t="n">
-        <v>3551.73306193099</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P29" t="n">
         <v>4239.741321354045</v>
@@ -6491,22 +6491,22 @@
         <v>4677.800445479192</v>
       </c>
       <c r="T29" t="n">
-        <v>4471.035440516011</v>
+        <v>4471.035440516012</v>
       </c>
       <c r="U29" t="n">
-        <v>4217.490576448262</v>
+        <v>4217.490576448263</v>
       </c>
       <c r="V29" t="n">
-        <v>3886.427689104691</v>
+        <v>3886.427689104692</v>
       </c>
       <c r="W29" t="n">
-        <v>3533.659033834577</v>
+        <v>3533.659033834578</v>
       </c>
       <c r="X29" t="n">
-        <v>3160.193275573497</v>
+        <v>3160.193275573498</v>
       </c>
       <c r="Y29" t="n">
-        <v>2770.053943597685</v>
+        <v>2770.053943597686</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F30" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G30" t="n">
         <v>199.367232908405</v>
@@ -6540,28 +6540,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J30" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K30" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L30" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M30" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N30" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.59574178639</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.086455254412</v>
+        <v>2405.860196239109</v>
       </c>
       <c r="Q30" t="n">
-        <v>2590.532838984828</v>
+        <v>2551.463295859453</v>
       </c>
       <c r="R30" t="n">
         <v>2590.532838984828</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.84378516563895</v>
+        <v>411.540386199982</v>
       </c>
       <c r="C31" t="n">
-        <v>95.84378516563895</v>
+        <v>411.5403861999819</v>
       </c>
       <c r="D31" t="n">
-        <v>95.84378516563895</v>
+        <v>411.5403861999819</v>
       </c>
       <c r="E31" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="F31" t="n">
-        <v>95.84378516563895</v>
+        <v>263.6272926175888</v>
       </c>
       <c r="G31" t="n">
         <v>95.84378516563895</v>
@@ -6619,52 +6619,52 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J31" t="n">
-        <v>135.3764883732602</v>
+        <v>135.3764883732601</v>
       </c>
       <c r="K31" t="n">
         <v>330.1777004235333</v>
       </c>
       <c r="L31" t="n">
-        <v>634.9826187409059</v>
+        <v>634.9826187409061</v>
       </c>
       <c r="M31" t="n">
-        <v>966.7457913979968</v>
+        <v>966.745791397997</v>
       </c>
       <c r="N31" t="n">
         <v>1296.054993758307</v>
       </c>
       <c r="O31" t="n">
-        <v>1584.209046862485</v>
+        <v>1584.209046862486</v>
       </c>
       <c r="P31" t="n">
-        <v>1807.253937215157</v>
+        <v>1807.253937215158</v>
       </c>
       <c r="Q31" t="n">
         <v>1878.243577816261</v>
       </c>
       <c r="R31" t="n">
-        <v>1878.243577816261</v>
+        <v>1784.785866858302</v>
       </c>
       <c r="S31" t="n">
-        <v>1781.594605253234</v>
+        <v>1687.65319055932</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.483305381539</v>
+        <v>1465.541890687625</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.376038280274</v>
+        <v>1176.43462358636</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.691550074387</v>
+        <v>921.7501353804727</v>
       </c>
       <c r="W31" t="n">
-        <v>726.2743800374261</v>
+        <v>632.3329653435121</v>
       </c>
       <c r="X31" t="n">
-        <v>498.2848291394088</v>
+        <v>632.3329653435121</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.4922499958786</v>
+        <v>411.540386199982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C32" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D32" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E32" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F32" t="n">
-        <v>859.4517305985505</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G32" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H32" t="n">
         <v>144.7740337572867</v>
@@ -6701,22 +6701,22 @@
         <v>269.7628212368057</v>
       </c>
       <c r="K32" t="n">
-        <v>902.064849139743</v>
+        <v>720.4163859339494</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.283451860565</v>
+        <v>1557.119591059718</v>
       </c>
       <c r="M32" t="n">
-        <v>2272.883528484085</v>
+        <v>2504.719667683237</v>
       </c>
       <c r="N32" t="n">
-        <v>3221.184767486939</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O32" t="n">
-        <v>4071.451098989469</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P32" t="n">
-        <v>4449.933162107351</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q32" t="n">
         <v>4679.185111611645</v>
@@ -6725,25 +6725,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S32" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T32" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U32" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V32" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W32" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X32" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y32" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F33" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G33" t="n">
         <v>199.367232908405</v>
@@ -6780,22 +6780,22 @@
         <v>180.6109246279577</v>
       </c>
       <c r="K33" t="n">
-        <v>403.6462922053119</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L33" t="n">
-        <v>749.8674093421301</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M33" t="n">
         <v>1173.247991017962</v>
       </c>
       <c r="N33" t="n">
-        <v>1622.242841798261</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O33" t="n">
         <v>2010.765616799385</v>
       </c>
       <c r="P33" t="n">
-        <v>2303.256330267407</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.532838984828</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.4649888932688</v>
+        <v>536.4649888932694</v>
       </c>
       <c r="C34" t="n">
-        <v>536.4649888932688</v>
+        <v>536.4649888932694</v>
       </c>
       <c r="D34" t="n">
-        <v>423.7884769566604</v>
+        <v>536.4649888932694</v>
       </c>
       <c r="E34" t="n">
-        <v>397.9930029096784</v>
+        <v>445.1312814566598</v>
       </c>
       <c r="F34" t="n">
-        <v>397.9930029096784</v>
+        <v>335.6814614344767</v>
       </c>
       <c r="G34" t="n">
-        <v>267.6496229334558</v>
+        <v>205.3380814582541</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1553266408406</v>
+        <v>95.84378516563895</v>
       </c>
       <c r="I34" t="n">
         <v>95.84378516563895</v>
@@ -6862,7 +6862,7 @@
         <v>403.5678383014538</v>
       </c>
       <c r="L34" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577866</v>
       </c>
       <c r="M34" t="n">
         <v>1113.526067153838</v>
@@ -6871,7 +6871,7 @@
         <v>1479.530338453108</v>
       </c>
       <c r="O34" t="n">
-        <v>1804.379460496246</v>
+        <v>1804.379460496247</v>
       </c>
       <c r="P34" t="n">
         <v>2064.119419787879</v>
@@ -6886,7 +6886,7 @@
         <v>1960.134916650774</v>
       </c>
       <c r="T34" t="n">
-        <v>1775.463744254806</v>
+        <v>1775.463744254807</v>
       </c>
       <c r="U34" t="n">
         <v>1523.796604629268</v>
@@ -6895,13 +6895,13 @@
         <v>1306.552243899108</v>
       </c>
       <c r="W34" t="n">
-        <v>1054.575201337874</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X34" t="n">
-        <v>864.0257779155841</v>
+        <v>864.0257779155849</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.6733262477812</v>
+        <v>680.6733262477819</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1656.225887986401</v>
       </c>
       <c r="E35" t="n">
-        <v>1270.437635388158</v>
+        <v>1270.437635388157</v>
       </c>
       <c r="F35" t="n">
-        <v>859.4517305985503</v>
+        <v>859.4517305985494</v>
       </c>
       <c r="G35" t="n">
         <v>444.1994386737234</v>
@@ -6935,28 +6935,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J35" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K35" t="n">
-        <v>1069.470498160096</v>
+        <v>902.0648491397432</v>
       </c>
       <c r="L35" t="n">
-        <v>1492.689100880918</v>
+        <v>1738.768054265511</v>
       </c>
       <c r="M35" t="n">
-        <v>1995.270779346534</v>
+        <v>2405.408767303282</v>
       </c>
       <c r="N35" t="n">
-        <v>2701.466730428459</v>
+        <v>3353.710006306136</v>
       </c>
       <c r="O35" t="n">
-        <v>3551.73306193099</v>
+        <v>3826.984158358548</v>
       </c>
       <c r="P35" t="n">
-        <v>4239.741321354045</v>
+        <v>4514.992417781604</v>
       </c>
       <c r="Q35" t="n">
-        <v>4679.185111611645</v>
+        <v>4744.244367285898</v>
       </c>
       <c r="R35" t="n">
         <v>4792.189258281947</v>
@@ -7002,7 +7002,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F36" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G36" t="n">
         <v>199.367232908405</v>
@@ -7014,25 +7014,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J36" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K36" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L36" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M36" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N36" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.59574178639</v>
+        <v>2152.439025896463</v>
       </c>
       <c r="P36" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q36" t="n">
         <v>2590.532838984828</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>536.4649888932694</v>
+        <v>536.4649888932688</v>
       </c>
       <c r="C37" t="n">
-        <v>404.9689334410897</v>
+        <v>404.9689334410891</v>
       </c>
       <c r="D37" t="n">
-        <v>397.9930029096784</v>
+        <v>292.2924215044806</v>
       </c>
       <c r="E37" t="n">
-        <v>397.9930029096784</v>
+        <v>288.4987066170632</v>
       </c>
       <c r="F37" t="n">
-        <v>397.9930029096784</v>
+        <v>288.4987066170632</v>
       </c>
       <c r="G37" t="n">
-        <v>267.6496229334558</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1553266408406</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="I37" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J37" t="n">
-        <v>172.0715573122203</v>
+        <v>172.0715573122204</v>
       </c>
       <c r="K37" t="n">
         <v>403.5678383014537</v>
       </c>
       <c r="L37" t="n">
-        <v>745.0678255577866</v>
+        <v>745.0678255577867</v>
       </c>
       <c r="M37" t="n">
         <v>1113.526067153838</v>
@@ -7132,13 +7132,13 @@
         <v>1306.552243899108</v>
       </c>
       <c r="W37" t="n">
-        <v>1054.575201337875</v>
+        <v>1054.575201337874</v>
       </c>
       <c r="X37" t="n">
-        <v>864.0257779155847</v>
+        <v>864.0257779155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.6733262477819</v>
+        <v>680.6733262477813</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>859.4517305985494</v>
       </c>
       <c r="G38" t="n">
-        <v>444.1994386737225</v>
+        <v>444.1994386737234</v>
       </c>
       <c r="H38" t="n">
-        <v>144.7740337572858</v>
+        <v>144.7740337572867</v>
       </c>
       <c r="I38" t="n">
         <v>95.84378516563895</v>
       </c>
       <c r="J38" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K38" t="n">
-        <v>748.5665397146429</v>
+        <v>778.8278442942994</v>
       </c>
       <c r="L38" t="n">
-        <v>1585.269744840411</v>
+        <v>1615.531049420068</v>
       </c>
       <c r="M38" t="n">
-        <v>2532.869821463931</v>
+        <v>2563.131126043587</v>
       </c>
       <c r="N38" t="n">
-        <v>3048.197605298921</v>
+        <v>3078.458909878577</v>
       </c>
       <c r="O38" t="n">
         <v>3551.73306193099</v>
@@ -7239,7 +7239,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F39" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G39" t="n">
         <v>199.367232908405</v>
@@ -7251,28 +7251,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J39" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K39" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L39" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M39" t="n">
-        <v>1298.078116004967</v>
+        <v>1275.851856989664</v>
       </c>
       <c r="N39" t="n">
-        <v>1747.072966785266</v>
+        <v>1724.846707769963</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.59574178639</v>
+        <v>2113.369482771087</v>
       </c>
       <c r="P39" t="n">
-        <v>2428.086455254412</v>
+        <v>2405.860196239109</v>
       </c>
       <c r="Q39" t="n">
-        <v>2590.532838984828</v>
+        <v>2551.463295859453</v>
       </c>
       <c r="R39" t="n">
         <v>2590.532838984828</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.4649888932689</v>
+        <v>536.4649888932692</v>
       </c>
       <c r="C40" t="n">
-        <v>536.4649888932689</v>
+        <v>404.9689334410895</v>
       </c>
       <c r="D40" t="n">
-        <v>508.4659690163442</v>
+        <v>292.2924215044809</v>
       </c>
       <c r="E40" t="n">
-        <v>397.9930029096784</v>
+        <v>267.6496229334558</v>
       </c>
       <c r="F40" t="n">
-        <v>397.9930029096784</v>
+        <v>267.6496229334558</v>
       </c>
       <c r="G40" t="n">
         <v>267.6496229334558</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1553266408406</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="I40" t="n">
         <v>95.84378516563895</v>
@@ -7336,7 +7336,7 @@
         <v>403.5678383014538</v>
       </c>
       <c r="L40" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577868</v>
       </c>
       <c r="M40" t="n">
         <v>1113.526067153838</v>
@@ -7363,19 +7363,19 @@
         <v>1775.463744254806</v>
       </c>
       <c r="U40" t="n">
-        <v>1523.796604629267</v>
+        <v>1523.796604629268</v>
       </c>
       <c r="V40" t="n">
         <v>1306.552243899108</v>
       </c>
       <c r="W40" t="n">
-        <v>1054.575201337874</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X40" t="n">
-        <v>864.0257779155843</v>
+        <v>864.0257779155846</v>
       </c>
       <c r="Y40" t="n">
-        <v>680.6733262477815</v>
+        <v>680.6733262477817</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J41" t="n">
-        <v>269.7628212368057</v>
+        <v>409.0183164764651</v>
       </c>
       <c r="K41" t="n">
-        <v>581.1608906942899</v>
+        <v>720.4163859339494</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.864095820058</v>
+        <v>1557.119591059718</v>
       </c>
       <c r="M41" t="n">
-        <v>2365.464172443578</v>
+        <v>2504.719667683237</v>
       </c>
       <c r="N41" t="n">
-        <v>3313.765411446432</v>
+        <v>3020.047451518227</v>
       </c>
       <c r="O41" t="n">
-        <v>4145.564879448317</v>
+        <v>3870.313783020757</v>
       </c>
       <c r="P41" t="n">
-        <v>4514.992417781604</v>
+        <v>4239.741321354045</v>
       </c>
       <c r="Q41" t="n">
-        <v>4744.244367285898</v>
+        <v>4679.185111611645</v>
       </c>
       <c r="R41" t="n">
         <v>4792.189258281947</v>
@@ -7476,7 +7476,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F42" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G42" t="n">
         <v>199.367232908405</v>
@@ -7491,22 +7491,22 @@
         <v>180.6109246279577</v>
       </c>
       <c r="K42" t="n">
-        <v>403.6462922053119</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L42" t="n">
-        <v>891.5408184392089</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M42" t="n">
-        <v>1314.921400115041</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N42" t="n">
-        <v>1763.91625089534</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O42" t="n">
-        <v>2152.439025896464</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P42" t="n">
-        <v>2444.929739364486</v>
+        <v>2303.256330267408</v>
       </c>
       <c r="Q42" t="n">
         <v>2590.532838984828</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>592.482572375501</v>
+        <v>536.464988893269</v>
       </c>
       <c r="C43" t="n">
-        <v>592.482572375501</v>
+        <v>490.7546247062983</v>
       </c>
       <c r="D43" t="n">
-        <v>508.4214927459123</v>
+        <v>378.0781127696898</v>
       </c>
       <c r="E43" t="n">
-        <v>397.9485266392464</v>
+        <v>267.6051466630239</v>
       </c>
       <c r="F43" t="n">
-        <v>288.4987066170632</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="G43" t="n">
-        <v>158.1553266408406</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1553266408406</v>
+        <v>158.1553266408407</v>
       </c>
       <c r="I43" t="n">
         <v>95.84378516563895</v>
@@ -7573,7 +7573,7 @@
         <v>403.5678383014538</v>
       </c>
       <c r="L43" t="n">
-        <v>745.0678255577867</v>
+        <v>745.0678255577866</v>
       </c>
       <c r="M43" t="n">
         <v>1113.526067153838</v>
@@ -7591,28 +7591,28 @@
         <v>2171.804129327943</v>
       </c>
       <c r="R43" t="n">
-        <v>2171.804129327943</v>
+        <v>2115.786545845711</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.152500133006</v>
+        <v>1960.134916650774</v>
       </c>
       <c r="T43" t="n">
-        <v>1831.481327737038</v>
+        <v>1775.463744254806</v>
       </c>
       <c r="U43" t="n">
-        <v>1579.8141881115</v>
+        <v>1523.796604629268</v>
       </c>
       <c r="V43" t="n">
-        <v>1362.56982738134</v>
+        <v>1306.552243899108</v>
       </c>
       <c r="W43" t="n">
-        <v>1110.592784820107</v>
+        <v>1054.575201337875</v>
       </c>
       <c r="X43" t="n">
-        <v>920.0433613978164</v>
+        <v>864.0257779155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.6909097300136</v>
+        <v>680.6733262477816</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2383.454103533564</v>
+        <v>2383.454103533563</v>
       </c>
       <c r="C44" t="n">
-        <v>2014.491586593153</v>
+        <v>2014.491586593152</v>
       </c>
       <c r="D44" t="n">
-        <v>1656.225887986403</v>
+        <v>1656.225887986402</v>
       </c>
       <c r="E44" t="n">
         <v>1270.437635388158</v>
       </c>
       <c r="F44" t="n">
-        <v>859.4517305985505</v>
+        <v>859.4517305985501</v>
       </c>
       <c r="G44" t="n">
-        <v>444.1994386737234</v>
+        <v>444.1994386737233</v>
       </c>
       <c r="H44" t="n">
         <v>144.7740337572867</v>
@@ -7646,19 +7646,19 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J44" t="n">
-        <v>437.1684702571587</v>
+        <v>269.7628212368057</v>
       </c>
       <c r="K44" t="n">
-        <v>1069.470498160096</v>
+        <v>778.8278442942994</v>
       </c>
       <c r="L44" t="n">
-        <v>1683.557268127854</v>
+        <v>1615.531049420068</v>
       </c>
       <c r="M44" t="n">
-        <v>2186.138946593469</v>
+        <v>2563.131126043587</v>
       </c>
       <c r="N44" t="n">
-        <v>2701.466730428459</v>
+        <v>3078.458909878577</v>
       </c>
       <c r="O44" t="n">
         <v>3551.73306193099</v>
@@ -7673,25 +7673,25 @@
         <v>4792.189258281947</v>
       </c>
       <c r="S44" t="n">
-        <v>4677.800445479193</v>
+        <v>4677.800445479192</v>
       </c>
       <c r="T44" t="n">
-        <v>4471.035440516012</v>
+        <v>4471.035440516011</v>
       </c>
       <c r="U44" t="n">
-        <v>4217.490576448263</v>
+        <v>4217.490576448262</v>
       </c>
       <c r="V44" t="n">
-        <v>3886.427689104692</v>
+        <v>3886.427689104691</v>
       </c>
       <c r="W44" t="n">
-        <v>3533.659033834578</v>
+        <v>3533.659033834577</v>
       </c>
       <c r="X44" t="n">
-        <v>3160.193275573498</v>
+        <v>3160.193275573497</v>
       </c>
       <c r="Y44" t="n">
-        <v>2770.053943597686</v>
+        <v>2770.053943597685</v>
       </c>
     </row>
     <row r="45">
@@ -7713,7 +7713,7 @@
         <v>482.3611148788598</v>
       </c>
       <c r="F45" t="n">
-        <v>335.8265569057448</v>
+        <v>335.8265569057447</v>
       </c>
       <c r="G45" t="n">
         <v>199.367232908405</v>
@@ -7725,25 +7725,25 @@
         <v>95.84378516563895</v>
       </c>
       <c r="J45" t="n">
-        <v>305.4410496149624</v>
+        <v>180.6109246279577</v>
       </c>
       <c r="K45" t="n">
-        <v>528.4764171923166</v>
+        <v>403.6462922053121</v>
       </c>
       <c r="L45" t="n">
-        <v>874.6975343291349</v>
+        <v>749.8674093421305</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.078116004967</v>
+        <v>1173.247991017962</v>
       </c>
       <c r="N45" t="n">
-        <v>1747.072966785266</v>
+        <v>1622.242841798262</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.59574178639</v>
+        <v>2010.765616799385</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.086455254412</v>
+        <v>2444.929739364485</v>
       </c>
       <c r="Q45" t="n">
         <v>2590.532838984828</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>536.464988893269</v>
+        <v>536.4649888932689</v>
       </c>
       <c r="C46" t="n">
-        <v>536.464988893269</v>
+        <v>404.9689334410892</v>
       </c>
       <c r="D46" t="n">
-        <v>507.4428229318615</v>
+        <v>404.9689334410892</v>
       </c>
       <c r="E46" t="n">
-        <v>507.4428229318615</v>
+        <v>404.9689334410892</v>
       </c>
       <c r="F46" t="n">
         <v>397.9930029096784</v>
@@ -7807,7 +7807,7 @@
         <v>172.0715573122204</v>
       </c>
       <c r="K46" t="n">
-        <v>403.5678383014538</v>
+        <v>403.5678383014537</v>
       </c>
       <c r="L46" t="n">
         <v>745.0678255577867</v>
@@ -7846,7 +7846,7 @@
         <v>1054.575201337875</v>
       </c>
       <c r="X46" t="n">
-        <v>864.0257779155847</v>
+        <v>864.0257779155845</v>
       </c>
       <c r="Y46" t="n">
         <v>680.6733262477815</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>192.7961285322585</v>
+        <v>258.5125484052409</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>17.01341829300412</v>
+        <v>103.6402686582846</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.057484836193765</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>40.99830357328511</v>
+        <v>106.7147234462671</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>143.1044536334113</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,19 +9170,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>40.99830357328483</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>40.38687900405137</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.01341829300378</v>
+        <v>17.01341829300276</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>40.99830357328511</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>242.8819649827901</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>143.1044536334115</v>
       </c>
       <c r="R21" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>186.6928264151464</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.99830357328605</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.01341829300412</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>143.1044536334116</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>124.0827763021714</v>
+        <v>155.9350952445528</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.01341829300372</v>
+        <v>103.6402686582845</v>
       </c>
       <c r="R27" t="n">
-        <v>6.057484836193765</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>124.0827763021711</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>65.08130321090812</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>103.6402686582845</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.057484836193765</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>140.6621164036964</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>9.145984630903001</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>143.1044536334115</v>
       </c>
       <c r="Q33" t="n">
-        <v>143.1044536334124</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>165.7161965375303</v>
       </c>
       <c r="N35" t="n">
-        <v>192.7961285322582</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>143.1044536334113</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>199.663589494959</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>30.56697432288547</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.6402686582845</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.057484836193765</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>140.6621164036964</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>362.1467837873458</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>143.1044536334129</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>143.1044536334115</v>
       </c>
       <c r="R42" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>199.663589494959</v>
       </c>
       <c r="L44" t="n">
-        <v>192.7961285322585</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>143.1044536334115</v>
       </c>
       <c r="Q45" t="n">
-        <v>17.01341829300372</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.057484836193765</v>
+        <v>6.057484836193737</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H13" t="n">
         <v>145.465079530659</v>
       </c>
       <c r="I13" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.1608391039575</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>246.1964479668523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>118.0323097810579</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>110.8231945383857</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>101.9695191685425</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H16" t="n">
-        <v>145.465079530659</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.465079530659</v>
       </c>
       <c r="I19" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>95.47835626656138</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>274.8314697499027</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>124.8176520468103</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>145.465079530659</v>
       </c>
       <c r="I22" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.52313384837929</v>
+        <v>92.52313384837927</v>
       </c>
       <c r="S22" t="n">
-        <v>95.47835626656105</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.1056723774303</v>
       </c>
       <c r="H25" t="n">
         <v>145.465079530659</v>
       </c>
       <c r="I25" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.1608391039575</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>70.42318954003376</v>
+        <v>188.0014901149403</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.28458619937569</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1056723774303</v>
+        <v>110.8027604030713</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.465079530659</v>
       </c>
       <c r="I28" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.1608391039575</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8901868729779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.216194430253</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1056723774303</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.465079530659</v>
       </c>
       <c r="I31" t="n">
-        <v>98.75415226141961</v>
+        <v>98.75415226141959</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.52313384837929</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>95.47835626656151</v>
+        <v>94.99948956796513</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>130.1810948976579</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E34" t="n">
-        <v>83.83071713908703</v>
+        <v>18.94786608335582</v>
       </c>
       <c r="F34" t="n">
-        <v>108.3553218219613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.68842606044967</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>104.6435755911453</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>109.3682364455992</v>
+        <v>105.6124587070559</v>
       </c>
       <c r="F37" t="n">
         <v>108.3553218219613</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>108.399353329689</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>130.1810948976579</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>83.83071713908696</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.97186586028374</v>
       </c>
       <c r="F40" t="n">
         <v>108.3553218219613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>129.0399461764603</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.1810948976579</v>
+        <v>84.92783435255686</v>
       </c>
       <c r="D43" t="n">
-        <v>28.32927798394974</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>129.0399461764603</v>
       </c>
       <c r="H43" t="n">
         <v>108.399353329689</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.45740764740934</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>130.1810948976579</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>82.81780251544888</v>
+        <v>111.5497468172424</v>
       </c>
       <c r="E46" t="n">
-        <v>109.3682364455992</v>
+        <v>109.3682364455993</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.4491505958647</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>713561.9266492137</v>
+        <v>713561.9266492135</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>713561.9266492137</v>
+        <v>713561.9266492138</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713561.9266492135</v>
+        <v>713561.9266492137</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
-        <v>693084.6309507611</v>
+        <v>693084.6309507613</v>
       </c>
       <c r="F2" t="n">
-        <v>693084.6309507614</v>
+        <v>693084.6309507616</v>
       </c>
       <c r="G2" t="n">
-        <v>693084.6309507615</v>
+        <v>693084.6309507613</v>
       </c>
       <c r="H2" t="n">
         <v>693084.6309507613</v>
@@ -26338,19 +26338,19 @@
         <v>693084.6309507609</v>
       </c>
       <c r="K2" t="n">
-        <v>693084.6309507611</v>
+        <v>693084.6309507614</v>
       </c>
       <c r="L2" t="n">
-        <v>711641.8388202157</v>
+        <v>711641.8388202154</v>
       </c>
       <c r="M2" t="n">
         <v>711641.838820215</v>
       </c>
       <c r="N2" t="n">
-        <v>711641.8388202151</v>
+        <v>711641.8388202148</v>
       </c>
       <c r="O2" t="n">
-        <v>711641.8388202153</v>
+        <v>711641.8388202155</v>
       </c>
       <c r="P2" t="n">
         <v>711641.8388202154</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29652.58096077596</v>
+        <v>29652.58096077593</v>
       </c>
       <c r="M3" t="n">
-        <v>130523.0974606974</v>
+        <v>130523.0974606973</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>21268.78283567256</v>
+        <v>21268.78283567255</v>
       </c>
       <c r="F4" t="n">
         <v>21268.78283567259</v>
       </c>
       <c r="G4" t="n">
-        <v>21268.78283567258</v>
+        <v>21268.78283567259</v>
       </c>
       <c r="H4" t="n">
-        <v>21268.78283567253</v>
+        <v>21268.78283567255</v>
       </c>
       <c r="I4" t="n">
         <v>21268.78283567257</v>
       </c>
       <c r="J4" t="n">
-        <v>21268.78283567256</v>
+        <v>21268.78283567255</v>
       </c>
       <c r="K4" t="n">
-        <v>21268.78283567256</v>
+        <v>21268.78283567255</v>
       </c>
       <c r="L4" t="n">
-        <v>33465.25394580065</v>
+        <v>33465.25394580063</v>
       </c>
       <c r="M4" t="n">
-        <v>33465.25394580068</v>
+        <v>33465.25394580066</v>
       </c>
       <c r="N4" t="n">
-        <v>33465.25394580069</v>
+        <v>33465.25394580066</v>
       </c>
       <c r="O4" t="n">
-        <v>33465.25394580066</v>
+        <v>33465.25394580063</v>
       </c>
       <c r="P4" t="n">
-        <v>33465.25394580065</v>
+        <v>33465.25394580064</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="F5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="G5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="H5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="I5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="J5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="K5" t="n">
-        <v>95632.92421108276</v>
+        <v>95632.92421108278</v>
       </c>
       <c r="L5" t="n">
         <v>98749.00274707211</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038338</v>
+        <v>-137764.0955038339</v>
       </c>
       <c r="C6" t="n">
+        <v>452203.7837107108</v>
+      </c>
+      <c r="D6" t="n">
         <v>452203.7837107104</v>
       </c>
-      <c r="D6" t="n">
-        <v>452203.7837107106</v>
-      </c>
       <c r="E6" t="n">
-        <v>-116668.4392822502</v>
+        <v>-116740.8019041943</v>
       </c>
       <c r="F6" t="n">
-        <v>576182.923904006</v>
+        <v>576110.561282062</v>
       </c>
       <c r="G6" t="n">
-        <v>576182.9239040061</v>
+        <v>576110.5612820616</v>
       </c>
       <c r="H6" t="n">
-        <v>576182.923904006</v>
+        <v>576110.5612820616</v>
       </c>
       <c r="I6" t="n">
-        <v>576182.9239040063</v>
+        <v>576110.561282062</v>
       </c>
       <c r="J6" t="n">
-        <v>399759.7047114127</v>
+        <v>399687.3420894684</v>
       </c>
       <c r="K6" t="n">
-        <v>576182.9239040058</v>
+        <v>576110.5612820619</v>
       </c>
       <c r="L6" t="n">
-        <v>549775.001166567</v>
+        <v>549755.6591385353</v>
       </c>
       <c r="M6" t="n">
-        <v>448904.4846666447</v>
+        <v>448885.1426386133</v>
       </c>
       <c r="N6" t="n">
-        <v>579427.5821273422</v>
+        <v>579408.2400993105</v>
       </c>
       <c r="O6" t="n">
-        <v>579427.5821273425</v>
+        <v>579408.2400993113</v>
       </c>
       <c r="P6" t="n">
-        <v>579427.5821273427</v>
+        <v>579408.2400993112</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
     <row r="3">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>667.7447525350775</v>
+        <v>667.7447525350776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7600418159313</v>
+        <v>523.7600418159312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>297.7579489647028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620069</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.89577304195201</v>
       </c>
       <c r="E7" t="n">
-        <v>59.54933966209472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>339.5382092338688</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="C34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="D34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="E34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="F34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="G34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="H34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="I34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="J34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="K34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="L34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="R34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="S34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="T34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="U34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="V34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="W34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="X34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
     <row r="35">
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>8.526512829121202e-13</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="C37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="D37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="E37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="F37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="G37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="H37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="I37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="J37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="K37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="L37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="R37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="S37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="T37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="U37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="V37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="W37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="X37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
     <row r="38">
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="C40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="D40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="E40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="F40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="G40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="H40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="I40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="J40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="K40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="L40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="R40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="S40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="T40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="U40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="V40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="W40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="X40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="C43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="D43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="E43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="F43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="G43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="H43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="I43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="J43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="K43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="L43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="R43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="S43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="T43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="U43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="V43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="W43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="X43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="C46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="D46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="E46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="F46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="G46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="H46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="I46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="J46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="K46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="L46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="M46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="N46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="O46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="P46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="R46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="S46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="T46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="U46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="V46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="W46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="X46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.06572620096995</v>
+        <v>37.06572620096991</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,40 +31753,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H11" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I11" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J11" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K11" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L11" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M11" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N11" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O11" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P11" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q11" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R11" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S11" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T11" t="n">
         <v>18.39849465058331</v>
@@ -31832,46 +31832,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H12" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I12" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J12" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K12" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L12" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M12" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N12" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O12" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P12" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R12" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S12" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T12" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H13" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I13" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J13" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K13" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L13" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M13" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N13" t="n">
         <v>288.5033855604785</v>
@@ -31941,13 +31941,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R13" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S13" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T13" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U13" t="n">
         <v>0.1028349262379179</v>
@@ -31990,40 +31990,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H14" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I14" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J14" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K14" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L14" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M14" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N14" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O14" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P14" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q14" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R14" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S14" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T14" t="n">
         <v>18.39849465058331</v>
@@ -32069,46 +32069,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H15" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I15" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J15" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K15" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L15" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M15" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N15" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O15" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P15" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q15" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R15" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S15" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T15" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,25 +32145,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H16" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I16" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J16" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K16" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L16" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M16" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N16" t="n">
         <v>288.5033855604785</v>
@@ -32178,13 +32178,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R16" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S16" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T16" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U16" t="n">
         <v>0.1028349262379179</v>
@@ -32227,40 +32227,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H17" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I17" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J17" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K17" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L17" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M17" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N17" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O17" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P17" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q17" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R17" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S17" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T17" t="n">
         <v>18.39849465058331</v>
@@ -32306,46 +32306,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H18" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I18" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J18" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K18" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L18" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M18" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N18" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O18" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P18" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q18" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R18" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S18" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T18" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,25 +32382,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H19" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I19" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J19" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K19" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L19" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M19" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N19" t="n">
         <v>288.5033855604785</v>
@@ -32415,13 +32415,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R19" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S19" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T19" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U19" t="n">
         <v>0.1028349262379179</v>
@@ -32464,40 +32464,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H20" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I20" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J20" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K20" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L20" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M20" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N20" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O20" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P20" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q20" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R20" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S20" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T20" t="n">
         <v>18.39849465058331</v>
@@ -32543,46 +32543,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H21" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I21" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J21" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K21" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L21" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M21" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N21" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O21" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P21" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q21" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R21" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S21" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T21" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,25 +32619,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H22" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I22" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J22" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K22" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L22" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M22" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N22" t="n">
         <v>288.5033855604785</v>
@@ -32652,13 +32652,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R22" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S22" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T22" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U22" t="n">
         <v>0.1028349262379179</v>
@@ -32701,40 +32701,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H23" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I23" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J23" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K23" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L23" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M23" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N23" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O23" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P23" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q23" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R23" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S23" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T23" t="n">
         <v>18.39849465058331</v>
@@ -32780,46 +32780,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H24" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I24" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J24" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K24" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L24" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M24" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N24" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O24" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P24" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q24" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R24" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S24" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T24" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,25 +32856,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H25" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I25" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J25" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K25" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L25" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M25" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N25" t="n">
         <v>288.5033855604785</v>
@@ -32889,13 +32889,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R25" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S25" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T25" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U25" t="n">
         <v>0.1028349262379179</v>
@@ -32938,40 +32938,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H26" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I26" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J26" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K26" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L26" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M26" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N26" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O26" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P26" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q26" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R26" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S26" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T26" t="n">
         <v>18.39849465058331</v>
@@ -33017,46 +33017,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H27" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I27" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J27" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K27" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L27" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M27" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N27" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O27" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P27" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q27" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R27" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S27" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T27" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,25 +33093,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H28" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I28" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J28" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K28" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L28" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M28" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N28" t="n">
         <v>288.5033855604785</v>
@@ -33126,13 +33126,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R28" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S28" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T28" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U28" t="n">
         <v>0.1028349262379179</v>
@@ -33175,40 +33175,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H29" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I29" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J29" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K29" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L29" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M29" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N29" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O29" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P29" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q29" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R29" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S29" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T29" t="n">
         <v>18.39849465058331</v>
@@ -33254,46 +33254,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H30" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I30" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J30" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K30" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L30" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M30" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N30" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O30" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P30" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q30" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R30" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S30" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T30" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,25 +33330,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H31" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I31" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J31" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K31" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L31" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M31" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N31" t="n">
         <v>288.5033855604785</v>
@@ -33363,13 +33363,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R31" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S31" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T31" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U31" t="n">
         <v>0.1028349262379179</v>
@@ -33412,40 +33412,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H32" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I32" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J32" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K32" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L32" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M32" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N32" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O32" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P32" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q32" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R32" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S32" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T32" t="n">
         <v>18.39849465058331</v>
@@ -33491,46 +33491,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H33" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I33" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J33" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K33" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L33" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M33" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N33" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O33" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P33" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q33" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R33" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S33" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T33" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,25 +33567,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H34" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I34" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J34" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K34" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L34" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M34" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N34" t="n">
         <v>288.5033855604785</v>
@@ -33600,13 +33600,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R34" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S34" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T34" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U34" t="n">
         <v>0.1028349262379179</v>
@@ -33649,40 +33649,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H35" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I35" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J35" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K35" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L35" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M35" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N35" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O35" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P35" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q35" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R35" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S35" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T35" t="n">
         <v>18.39849465058331</v>
@@ -33728,46 +33728,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H36" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I36" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J36" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K36" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L36" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M36" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N36" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O36" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P36" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R36" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S36" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T36" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,25 +33804,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H37" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I37" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J37" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K37" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L37" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M37" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N37" t="n">
         <v>288.5033855604785</v>
@@ -33837,13 +33837,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R37" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S37" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T37" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U37" t="n">
         <v>0.1028349262379179</v>
@@ -33886,40 +33886,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H38" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I38" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J38" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K38" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L38" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M38" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N38" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O38" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P38" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q38" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R38" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S38" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T38" t="n">
         <v>18.39849465058331</v>
@@ -33965,46 +33965,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H39" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I39" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J39" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K39" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L39" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M39" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N39" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O39" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P39" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q39" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R39" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S39" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T39" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,25 +34041,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H40" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I40" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J40" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K40" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L40" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M40" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N40" t="n">
         <v>288.5033855604785</v>
@@ -34074,13 +34074,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R40" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S40" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T40" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U40" t="n">
         <v>0.1028349262379179</v>
@@ -34123,40 +34123,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H41" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I41" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J41" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K41" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L41" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M41" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N41" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O41" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P41" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q41" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R41" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S41" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T41" t="n">
         <v>18.39849465058331</v>
@@ -34202,46 +34202,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H42" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I42" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J42" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K42" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L42" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M42" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N42" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O42" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P42" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q42" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R42" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S42" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T42" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,25 +34278,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H43" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I43" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J43" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K43" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L43" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M43" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N43" t="n">
         <v>288.5033855604785</v>
@@ -34311,13 +34311,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R43" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S43" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T43" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U43" t="n">
         <v>0.1028349262379179</v>
@@ -34360,40 +34360,40 @@
         <v>4.202968509556436</v>
       </c>
       <c r="H44" t="n">
-        <v>43.04365124849485</v>
+        <v>43.04365124849486</v>
       </c>
       <c r="I44" t="n">
-        <v>162.0349434646746</v>
+        <v>162.0349434646747</v>
       </c>
       <c r="J44" t="n">
-        <v>356.7216985379658</v>
+        <v>356.7216985379659</v>
       </c>
       <c r="K44" t="n">
-        <v>534.6333555474898</v>
+        <v>534.6333555474899</v>
       </c>
       <c r="L44" t="n">
-        <v>663.2599530718278</v>
+        <v>663.2599530718279</v>
       </c>
       <c r="M44" t="n">
-        <v>738.004494303652</v>
+        <v>738.0044943036521</v>
       </c>
       <c r="N44" t="n">
-        <v>749.9461785814293</v>
+        <v>749.9461785814294</v>
       </c>
       <c r="O44" t="n">
-        <v>708.1529104645274</v>
+        <v>708.1529104645275</v>
       </c>
       <c r="P44" t="n">
-        <v>604.3921253848528</v>
+        <v>604.392125384853</v>
       </c>
       <c r="Q44" t="n">
-        <v>453.8733156363628</v>
+        <v>453.8733156363629</v>
       </c>
       <c r="R44" t="n">
-        <v>264.0147206384246</v>
+        <v>264.0147206384247</v>
       </c>
       <c r="S44" t="n">
-        <v>95.77514491151737</v>
+        <v>95.77514491151739</v>
       </c>
       <c r="T44" t="n">
         <v>18.39849465058331</v>
@@ -34439,46 +34439,46 @@
         <v>2.248786405844278</v>
       </c>
       <c r="H45" t="n">
-        <v>21.71854239328552</v>
+        <v>21.71854239328553</v>
       </c>
       <c r="I45" t="n">
-        <v>77.42532142928764</v>
+        <v>77.42532142928765</v>
       </c>
       <c r="J45" t="n">
-        <v>212.460999860928</v>
+        <v>212.4609998609281</v>
       </c>
       <c r="K45" t="n">
-        <v>363.1296890524946</v>
+        <v>363.1296890524947</v>
       </c>
       <c r="L45" t="n">
-        <v>488.2726799180744</v>
+        <v>488.2726799180745</v>
       </c>
       <c r="M45" t="n">
-        <v>569.7911871299293</v>
+        <v>569.7911871299294</v>
       </c>
       <c r="N45" t="n">
-        <v>584.8718643866658</v>
+        <v>584.8718643866659</v>
       </c>
       <c r="O45" t="n">
-        <v>535.0434919203268</v>
+        <v>535.0434919203269</v>
       </c>
       <c r="P45" t="n">
-        <v>429.4195725335446</v>
+        <v>429.4195725335447</v>
       </c>
       <c r="Q45" t="n">
-        <v>287.0556120863678</v>
+        <v>287.0556120863679</v>
       </c>
       <c r="R45" t="n">
         <v>139.6220191277702</v>
       </c>
       <c r="S45" t="n">
-        <v>41.7702211787303</v>
+        <v>41.77022117873031</v>
       </c>
       <c r="T45" t="n">
-        <v>9.064187311275834</v>
+        <v>9.064187311275836</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1479464740687025</v>
+        <v>0.1479464740687026</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,25 +34515,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.885306981028492</v>
+        <v>1.885306981028493</v>
       </c>
       <c r="H46" t="n">
         <v>16.76209297678061</v>
       </c>
       <c r="I46" t="n">
-        <v>56.69632266583868</v>
+        <v>56.69632266583869</v>
       </c>
       <c r="J46" t="n">
         <v>133.2912035587144</v>
       </c>
       <c r="K46" t="n">
-        <v>219.0383928867648</v>
+        <v>219.0383928867649</v>
       </c>
       <c r="L46" t="n">
-        <v>280.2937306158179</v>
+        <v>280.293730615818</v>
       </c>
       <c r="M46" t="n">
-        <v>295.5304388534026</v>
+        <v>295.5304388534027</v>
       </c>
       <c r="N46" t="n">
         <v>288.5033855604785</v>
@@ -34548,13 +34548,13 @@
         <v>157.8687509295768</v>
       </c>
       <c r="R46" t="n">
-        <v>84.7702575287902</v>
+        <v>84.77025752879021</v>
       </c>
       <c r="S46" t="n">
-        <v>32.85575893301471</v>
+        <v>32.85575893301472</v>
       </c>
       <c r="T46" t="n">
-        <v>8.055402555303557</v>
+        <v>8.055402555303559</v>
       </c>
       <c r="U46" t="n">
         <v>0.1028349262379179</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>344.7724091833533</v>
+        <v>344.7724091833534</v>
       </c>
       <c r="K11" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L11" t="n">
-        <v>620.289666634099</v>
+        <v>686.0060865070816</v>
       </c>
       <c r="M11" t="n">
-        <v>507.6582610763793</v>
+        <v>507.6582610763794</v>
       </c>
       <c r="N11" t="n">
         <v>520.5331149848384</v>
       </c>
       <c r="O11" t="n">
-        <v>858.854880305586</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P11" t="n">
-        <v>694.9578378010658</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.882616421818</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R11" t="n">
-        <v>114.145602697275</v>
+        <v>48.42918282429258</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K12" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L12" t="n">
-        <v>366.7317184312043</v>
+        <v>453.3585687964849</v>
       </c>
       <c r="M12" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N12" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O12" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P12" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.0738380003463</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.46418497512708</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K13" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L13" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M13" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N13" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O13" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P13" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>216.6740975845647</v>
+        <v>282.3905174575467</v>
       </c>
       <c r="K14" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L14" t="n">
-        <v>845.154752652291</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M14" t="n">
-        <v>507.6582610763793</v>
+        <v>507.6582610763794</v>
       </c>
       <c r="N14" t="n">
-        <v>957.8800393968226</v>
+        <v>957.8800393968227</v>
       </c>
       <c r="O14" t="n">
-        <v>858.854880305586</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P14" t="n">
-        <v>373.1591296295832</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q14" t="n">
-        <v>231.5676257619133</v>
+        <v>231.5676257619134</v>
       </c>
       <c r="R14" t="n">
-        <v>114.145602697275</v>
+        <v>48.42918282429258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K15" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L15" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M15" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N15" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O15" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092937</v>
       </c>
       <c r="P15" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q15" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K16" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L16" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M16" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N16" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O16" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P16" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6757940112795</v>
+        <v>344.7724091833534</v>
       </c>
       <c r="K17" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L17" t="n">
-        <v>845.154752652291</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M17" t="n">
-        <v>548.6565646496641</v>
+        <v>507.6582610763794</v>
       </c>
       <c r="N17" t="n">
-        <v>957.8800393968226</v>
+        <v>957.8800393968227</v>
       </c>
       <c r="O17" t="n">
-        <v>858.854880305586</v>
+        <v>518.4415780468921</v>
       </c>
       <c r="P17" t="n">
-        <v>373.1591296295832</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q17" t="n">
-        <v>231.5676257619133</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R17" t="n">
         <v>114.145602697275</v>
@@ -35963,25 +35963,25 @@
         <v>211.7144085346702</v>
       </c>
       <c r="K18" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L18" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M18" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N18" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O18" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P18" t="n">
-        <v>312.4585834122181</v>
+        <v>312.4585834122172</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.0738380003463</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K19" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L19" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M19" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N19" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O19" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P19" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>216.6740975845647</v>
+        <v>344.7724091833534</v>
       </c>
       <c r="K20" t="n">
-        <v>638.688917073674</v>
+        <v>557.4254694852995</v>
       </c>
       <c r="L20" t="n">
-        <v>845.154752652291</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M20" t="n">
-        <v>507.6582610763793</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N20" t="n">
-        <v>957.8800393968226</v>
+        <v>520.5331149848384</v>
       </c>
       <c r="O20" t="n">
-        <v>858.854880305586</v>
+        <v>478.0546990428408</v>
       </c>
       <c r="P20" t="n">
-        <v>373.1591296295832</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q20" t="n">
-        <v>231.5676257619133</v>
+        <v>231.5676257619134</v>
       </c>
       <c r="R20" t="n">
         <v>114.145602697275</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K21" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L21" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M21" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N21" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O21" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P21" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.0738380003463</v>
+        <v>290.1782916337579</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K22" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L22" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M22" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N22" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O22" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P22" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.6757940112795</v>
+        <v>175.6757940112796</v>
       </c>
       <c r="K23" t="n">
-        <v>638.688917073674</v>
+        <v>501.2363309176558</v>
       </c>
       <c r="L23" t="n">
-        <v>845.154752652291</v>
+        <v>427.4935381018407</v>
       </c>
       <c r="M23" t="n">
-        <v>507.6582610763793</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N23" t="n">
-        <v>957.8800393968226</v>
+        <v>957.8800393968227</v>
       </c>
       <c r="O23" t="n">
-        <v>858.854880305586</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P23" t="n">
-        <v>373.1591296295832</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q23" t="n">
-        <v>272.5659293351994</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R23" t="n">
-        <v>114.145602697275</v>
+        <v>48.42918282429258</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K24" t="n">
-        <v>242.3016683711397</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L24" t="n">
-        <v>349.7183001382002</v>
+        <v>492.8227537716119</v>
       </c>
       <c r="M24" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N24" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O24" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P24" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.0738380003463</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K25" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L25" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M25" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N25" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O25" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P25" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>344.7724091833533</v>
+        <v>344.7724091833534</v>
       </c>
       <c r="K26" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L26" t="n">
-        <v>427.4935381018406</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M26" t="n">
-        <v>957.1717945692118</v>
+        <v>507.6582610763794</v>
       </c>
       <c r="N26" t="n">
         <v>520.5331149848384</v>
       </c>
       <c r="O26" t="n">
-        <v>602.137475345012</v>
+        <v>633.9897942873936</v>
       </c>
       <c r="P26" t="n">
-        <v>694.9578378010658</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.882616421818</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R26" t="n">
         <v>114.145602697275</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K27" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L27" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M27" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N27" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O27" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P27" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.08725629335</v>
+        <v>250.7141066586308</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>39.46418497512708</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K28" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L28" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M28" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N28" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O28" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P28" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>344.7724091833533</v>
+        <v>344.7724091833534</v>
       </c>
       <c r="K29" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L29" t="n">
-        <v>551.5763144040117</v>
+        <v>427.4935381018407</v>
       </c>
       <c r="M29" t="n">
-        <v>957.1717945692118</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N29" t="n">
-        <v>520.5331149848384</v>
+        <v>585.6144181957466</v>
       </c>
       <c r="O29" t="n">
-        <v>478.0546990428406</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P29" t="n">
-        <v>694.9578378010658</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q29" t="n">
-        <v>443.882616421818</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R29" t="n">
         <v>114.145602697275</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K30" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L30" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M30" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N30" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O30" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P30" t="n">
-        <v>295.4451651192143</v>
+        <v>399.0854337774989</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.46418497512708</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.93202344204164</v>
+        <v>39.93202344204167</v>
       </c>
       <c r="K31" t="n">
-        <v>196.7689010608819</v>
+        <v>196.768901060882</v>
       </c>
       <c r="L31" t="n">
-        <v>307.883755876134</v>
+        <v>307.8837558761342</v>
       </c>
       <c r="M31" t="n">
-        <v>335.1143158152432</v>
+        <v>335.1143158152433</v>
       </c>
       <c r="N31" t="n">
-        <v>332.635557939707</v>
+        <v>332.6355579397072</v>
       </c>
       <c r="O31" t="n">
         <v>291.0647001052307</v>
       </c>
       <c r="P31" t="n">
-        <v>225.297869043103</v>
+        <v>225.2978690431031</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.70670767788239</v>
+        <v>71.70670767788242</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.6757940112795</v>
+        <v>175.6757940112796</v>
       </c>
       <c r="K32" t="n">
-        <v>638.688917073674</v>
+        <v>455.2056209062058</v>
       </c>
       <c r="L32" t="n">
-        <v>427.4935381018406</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M32" t="n">
-        <v>957.1717945692118</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N32" t="n">
-        <v>957.8800393968226</v>
+        <v>520.5331149848384</v>
       </c>
       <c r="O32" t="n">
-        <v>858.854880305586</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P32" t="n">
-        <v>382.3051142604862</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q32" t="n">
-        <v>231.5676257619133</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R32" t="n">
         <v>114.145602697275</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.62337319426132</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K33" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L33" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M33" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N33" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O33" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P33" t="n">
-        <v>295.4451651192143</v>
+        <v>438.5496187526259</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1782916337588</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>233.8346272618519</v>
       </c>
       <c r="L34" t="n">
-        <v>344.949482077104</v>
+        <v>344.9494820771041</v>
       </c>
       <c r="M34" t="n">
         <v>372.1800420162132</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112796</v>
       </c>
       <c r="K35" t="n">
-        <v>638.688917073674</v>
+        <v>638.6889170736741</v>
       </c>
       <c r="L35" t="n">
-        <v>427.4935381018406</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M35" t="n">
-        <v>507.6582610763793</v>
+        <v>673.3744576139097</v>
       </c>
       <c r="N35" t="n">
-        <v>713.3292435170966</v>
+        <v>957.8800393968227</v>
       </c>
       <c r="O35" t="n">
-        <v>858.854880305586</v>
+        <v>478.0546990428408</v>
       </c>
       <c r="P35" t="n">
-        <v>694.9578378010658</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q35" t="n">
-        <v>443.882616421818</v>
+        <v>231.5676257619134</v>
       </c>
       <c r="R35" t="n">
-        <v>114.145602697275</v>
+        <v>48.42918282429258</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K36" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L36" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M36" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N36" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O36" t="n">
-        <v>392.4472474758824</v>
+        <v>535.5517011092937</v>
       </c>
       <c r="P36" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>233.8346272618519</v>
       </c>
       <c r="L37" t="n">
-        <v>344.949482077104</v>
+        <v>344.9494820771041</v>
       </c>
       <c r="M37" t="n">
         <v>372.1800420162132</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112796</v>
       </c>
       <c r="K38" t="n">
-        <v>314.5435045025093</v>
+        <v>514.2070939974684</v>
       </c>
       <c r="L38" t="n">
-        <v>845.154752652291</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M38" t="n">
-        <v>957.1717945692118</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N38" t="n">
         <v>520.5331149848384</v>
       </c>
       <c r="O38" t="n">
-        <v>508.6216733657261</v>
+        <v>478.0546990428408</v>
       </c>
       <c r="P38" t="n">
-        <v>694.9578378010658</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q38" t="n">
-        <v>443.882616421818</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R38" t="n">
         <v>114.145602697275</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K39" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L39" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M39" t="n">
-        <v>427.657153207911</v>
+        <v>531.2974218661956</v>
       </c>
       <c r="N39" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O39" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P39" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q39" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.46418497512708</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>233.8346272618519</v>
       </c>
       <c r="L40" t="n">
-        <v>344.949482077104</v>
+        <v>344.9494820771041</v>
       </c>
       <c r="M40" t="n">
         <v>372.1800420162132</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.6757940112795</v>
+        <v>316.337910414976</v>
       </c>
       <c r="K41" t="n">
-        <v>314.5435045025093</v>
+        <v>314.5435045025094</v>
       </c>
       <c r="L41" t="n">
-        <v>845.154752652291</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M41" t="n">
-        <v>957.1717945692118</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N41" t="n">
-        <v>957.8800393968226</v>
+        <v>520.5331149848384</v>
       </c>
       <c r="O41" t="n">
-        <v>840.2014828301865</v>
+        <v>858.8548803055861</v>
       </c>
       <c r="P41" t="n">
-        <v>373.1591296295832</v>
+        <v>373.1591296295834</v>
       </c>
       <c r="Q41" t="n">
-        <v>231.5676257619133</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R41" t="n">
-        <v>48.42918282429252</v>
+        <v>114.145602697275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.62337319426132</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K42" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L42" t="n">
-        <v>492.8227537716131</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M42" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N42" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O42" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P42" t="n">
-        <v>295.4451651192143</v>
+        <v>295.4451651192144</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.0738380003463</v>
+        <v>290.1782916337579</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>233.8346272618519</v>
       </c>
       <c r="L43" t="n">
-        <v>344.949482077104</v>
+        <v>344.9494820771041</v>
       </c>
       <c r="M43" t="n">
         <v>372.1800420162132</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>344.7724091833533</v>
+        <v>175.6757940112796</v>
       </c>
       <c r="K44" t="n">
-        <v>638.688917073674</v>
+        <v>514.2070939974684</v>
       </c>
       <c r="L44" t="n">
-        <v>620.289666634099</v>
+        <v>845.1547526522911</v>
       </c>
       <c r="M44" t="n">
-        <v>507.6582610763793</v>
+        <v>957.1717945692119</v>
       </c>
       <c r="N44" t="n">
         <v>520.5331149848384</v>
       </c>
       <c r="O44" t="n">
-        <v>858.854880305586</v>
+        <v>478.0546990428408</v>
       </c>
       <c r="P44" t="n">
-        <v>694.9578378010658</v>
+        <v>694.957837801066</v>
       </c>
       <c r="Q44" t="n">
-        <v>443.882616421818</v>
+        <v>443.8826164218181</v>
       </c>
       <c r="R44" t="n">
         <v>114.145602697275</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>211.7144085346702</v>
+        <v>85.62337319426138</v>
       </c>
       <c r="K45" t="n">
-        <v>225.2882500781356</v>
+        <v>225.2882500781357</v>
       </c>
       <c r="L45" t="n">
-        <v>349.7183001382002</v>
+        <v>349.7183001382003</v>
       </c>
       <c r="M45" t="n">
-        <v>427.657153207911</v>
+        <v>427.6571532079111</v>
       </c>
       <c r="N45" t="n">
-        <v>453.5301523033326</v>
+        <v>453.5301523033327</v>
       </c>
       <c r="O45" t="n">
-        <v>392.4472474758824</v>
+        <v>392.4472474758825</v>
       </c>
       <c r="P45" t="n">
-        <v>295.4451651192143</v>
+        <v>438.5496187526259</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.08725629335</v>
+        <v>147.0738380003464</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>233.8346272618519</v>
       </c>
       <c r="L46" t="n">
-        <v>344.949482077104</v>
+        <v>344.9494820771041</v>
       </c>
       <c r="M46" t="n">
         <v>372.1800420162132</v>
